--- a/data dictionary/数据元素描述表.xlsx
+++ b/data dictionary/数据元素描述表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clutch\Desktop\data_labeling\data dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634DE246-E534-46D4-82FE-D393A9474801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD817FCE-CBF1-4F8A-B62D-BE1B873DDACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="159">
   <si>
     <t>数据元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,10 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> （0 ，5）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务单价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -555,10 +551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>group_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -668,6 +660,14 @@
   </si>
   <si>
     <t>数据元素ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0 ，5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="C205" sqref="C205:I205"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="B268" sqref="B268:C268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1180,7 +1180,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="8">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
@@ -1196,7 +1196,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I4" s="5">
         <v>1</v>
@@ -1286,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="8">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="2" t="s">
@@ -1302,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I12" s="5">
         <v>2</v>
@@ -1391,7 +1391,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="8">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="2" t="s">
@@ -1407,7 +1407,7 @@
         <v>6</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I20" s="5">
         <v>3</v>
@@ -1510,7 +1510,7 @@
         <v>27</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I28" s="5">
         <v>4</v>
@@ -1615,7 +1615,7 @@
         <v>27</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I36" s="5">
         <v>5</v>
@@ -1720,7 +1720,7 @@
         <v>6</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I44" s="5">
         <v>6</v>
@@ -1825,7 +1825,7 @@
         <v>6</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I52" s="5">
         <v>7</v>
@@ -1929,7 +1929,7 @@
         <v>27</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I60" s="5">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         <v>27</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I68" s="5">
         <v>9</v>
@@ -2135,7 +2135,7 @@
         <v>27</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I76" s="5">
         <v>10</v>
@@ -2238,7 +2238,7 @@
         <v>27</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I84" s="5">
         <v>11</v>
@@ -2324,8 +2324,8 @@
       <c r="A92" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B92" s="8">
-        <v>1</v>
+      <c r="B92" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="2" t="s">
@@ -2341,7 +2341,7 @@
         <v>27</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I92" s="5">
         <v>12</v>
@@ -2446,7 +2446,7 @@
         <v>6</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I100">
         <v>13</v>
@@ -2551,7 +2551,7 @@
         <v>6</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I108" s="5">
         <v>14</v>
@@ -2637,8 +2637,8 @@
       <c r="A116" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="8">
-        <v>1</v>
+      <c r="B116" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="2" t="s">
@@ -2654,7 +2654,7 @@
         <v>6</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I116" s="5">
         <v>15</v>
@@ -2740,8 +2740,8 @@
       <c r="A124" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B124" s="8">
-        <v>1</v>
+      <c r="B124" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="2" t="s">
@@ -2757,7 +2757,7 @@
         <v>6</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I124" s="5">
         <v>16</v>
@@ -2843,8 +2843,8 @@
       <c r="A132" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B132" s="8">
-        <v>1</v>
+      <c r="B132" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="2" t="s">
@@ -2860,7 +2860,7 @@
         <v>6</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I132" s="5">
         <v>17</v>
@@ -2963,7 +2963,7 @@
         <v>6</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I140" s="5">
         <v>18</v>
@@ -3051,15 +3051,15 @@
       <c r="A148" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B148" s="8">
-        <v>1</v>
+      <c r="B148" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>12</v>
@@ -3068,7 +3068,7 @@
         <v>6</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I148" s="5">
         <v>19</v>
@@ -3154,8 +3154,8 @@
       <c r="A156" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B156" s="8">
-        <v>1</v>
+      <c r="B156" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="2" t="s">
@@ -3171,7 +3171,7 @@
         <v>6</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I156" s="5">
         <v>20</v>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="8" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="D157" s="12"/>
       <c r="E157" s="12"/>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B162" s="11"/>
       <c r="C162" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D162" s="12"/>
       <c r="E162" s="10" t="s">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="F162" s="11"/>
       <c r="G162" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H162" s="12"/>
       <c r="I162" s="9"/>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
@@ -3274,7 +3274,7 @@
         <v>6</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I164" s="5">
         <v>21</v>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D165" s="12"/>
       <c r="E165" s="12"/>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="B170" s="11"/>
       <c r="C170" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D170" s="12"/>
       <c r="E170" s="10" t="s">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="F170" s="11"/>
       <c r="G170" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H170" s="12"/>
       <c r="I170" s="9"/>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B171" s="11"/>
       <c r="C171" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
@@ -3368,7 +3368,7 @@
         <v>11</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>12</v>
@@ -3377,7 +3377,7 @@
         <v>6</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I172" s="5">
         <v>22</v>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B173" s="11"/>
       <c r="C173" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D173" s="12"/>
       <c r="E173" s="12"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D178" s="12"/>
       <c r="E178" s="10" t="s">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="F178" s="11"/>
       <c r="G178" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H178" s="12"/>
       <c r="I178" s="9"/>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B179" s="11"/>
       <c r="C179" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D179" s="12"/>
       <c r="E179" s="12"/>
@@ -3471,7 +3471,7 @@
         <v>11</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>12</v>
@@ -3480,7 +3480,7 @@
         <v>6</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I180" s="5">
         <v>23</v>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D181" s="12"/>
       <c r="E181" s="12"/>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D182" s="12"/>
       <c r="E182" s="12"/>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D186" s="12"/>
       <c r="E186" s="10" t="s">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="F186" s="11"/>
       <c r="G186" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H186" s="12"/>
       <c r="I186" s="9"/>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="B187" s="11"/>
       <c r="C187" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D187" s="12"/>
       <c r="E187" s="12"/>
@@ -3576,7 +3576,7 @@
         <v>11</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>12</v>
@@ -3585,7 +3585,7 @@
         <v>6</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I188" s="5">
         <v>24</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B194" s="11"/>
       <c r="C194" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D194" s="12"/>
       <c r="E194" s="10" t="s">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="F194" s="11"/>
       <c r="G194" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H194" s="12"/>
       <c r="I194" s="9"/>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="B195" s="11"/>
       <c r="C195" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D195" s="12"/>
       <c r="E195" s="12"/>
@@ -3679,7 +3679,7 @@
         <v>11</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>12</v>
@@ -3688,7 +3688,7 @@
         <v>6</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I196" s="5">
         <v>25</v>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D197" s="12"/>
       <c r="E197" s="12"/>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D198" s="12"/>
       <c r="E198" s="12"/>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B202" s="11"/>
       <c r="C202" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D202" s="12"/>
       <c r="E202" s="10" t="s">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="F202" s="11"/>
       <c r="G202" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H202" s="12"/>
       <c r="I202" s="9"/>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B203" s="11"/>
       <c r="C203" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D203" s="12"/>
       <c r="E203" s="12"/>
@@ -3776,8 +3776,8 @@
       <c r="A204" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B204" s="8">
-        <v>1</v>
+      <c r="B204" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C204" s="9"/>
       <c r="D204" s="2" t="s">
@@ -3793,7 +3793,7 @@
         <v>27</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I204" s="5">
         <v>26</v>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="B205" s="11"/>
       <c r="C205" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D205" s="12"/>
       <c r="E205" s="12"/>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="B206" s="11"/>
       <c r="C206" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D206" s="12"/>
       <c r="E206" s="12"/>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B210" s="11"/>
       <c r="C210" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D210" s="12"/>
       <c r="E210" s="10" t="s">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="F210" s="11"/>
       <c r="G210" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H210" s="12"/>
       <c r="I210" s="9"/>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="B211" s="11"/>
       <c r="C211" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D211" s="12"/>
       <c r="E211" s="12"/>
@@ -3881,15 +3881,15 @@
       <c r="A212" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B212" s="8" t="s">
-        <v>30</v>
+      <c r="B212" s="8">
+        <v>256</v>
       </c>
       <c r="C212" s="9"/>
       <c r="D212" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>12</v>
@@ -3898,7 +3898,7 @@
         <v>6</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I212" s="5">
         <v>27</v>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B218" s="11"/>
       <c r="C218" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D218" s="12"/>
       <c r="E218" s="10" t="s">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="F218" s="11"/>
       <c r="G218" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H218" s="12"/>
       <c r="I218" s="9"/>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="B219" s="11"/>
       <c r="C219" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D219" s="12"/>
       <c r="E219" s="12"/>
@@ -3984,8 +3984,8 @@
       <c r="A220" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B220" s="8">
-        <v>1</v>
+      <c r="B220" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C220" s="9"/>
       <c r="D220" s="2" t="s">
@@ -4001,7 +4001,7 @@
         <v>6</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I220" s="5">
         <v>28</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="B221" s="11"/>
       <c r="C221" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D221" s="12"/>
       <c r="E221" s="12"/>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="B226" s="11"/>
       <c r="C226" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D226" s="12"/>
       <c r="E226" s="10" t="s">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="F226" s="11"/>
       <c r="G226" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H226" s="12"/>
       <c r="I226" s="9"/>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="B227" s="11"/>
       <c r="C227" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D227" s="12"/>
       <c r="E227" s="12"/>
@@ -4087,8 +4087,8 @@
       <c r="A228" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B228" s="8">
-        <v>1</v>
+      <c r="B228" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C228" s="9"/>
       <c r="D228" s="2" t="s">
@@ -4104,7 +4104,7 @@
         <v>27</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I228" s="5">
         <v>29</v>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B229" s="11"/>
       <c r="C229" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D229" s="12"/>
       <c r="E229" s="12"/>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B230" s="11"/>
       <c r="C230" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D230" s="12"/>
       <c r="E230" s="12"/>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B234" s="11"/>
       <c r="C234" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D234" s="12"/>
       <c r="E234" s="10" t="s">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="F234" s="11"/>
       <c r="G234" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H234" s="12"/>
       <c r="I234" s="9"/>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="B235" s="11"/>
       <c r="C235" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D235" s="12"/>
       <c r="E235" s="12"/>
@@ -4192,8 +4192,8 @@
       <c r="A236" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B236" s="8">
-        <v>1</v>
+      <c r="B236" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C236" s="9"/>
       <c r="D236" s="2" t="s">
@@ -4209,7 +4209,7 @@
         <v>6</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I236" s="5">
         <v>30</v>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B237" s="11"/>
       <c r="C237" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B242" s="11"/>
       <c r="C242" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D242" s="12"/>
       <c r="E242" s="10" t="s">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="F242" s="11"/>
       <c r="G242" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H242" s="12"/>
       <c r="I242" s="9"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="B243" s="11"/>
       <c r="C243" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D243" s="12"/>
       <c r="E243" s="12"/>
@@ -4296,8 +4296,8 @@
       <c r="A244" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B244" s="8">
-        <v>1</v>
+      <c r="B244" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C244" s="9"/>
       <c r="D244" s="2" t="s">
@@ -4313,7 +4313,7 @@
         <v>6</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I244" s="5">
         <v>31</v>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="B245" s="11"/>
       <c r="C245" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D245" s="12"/>
       <c r="E245" s="12"/>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B250" s="11"/>
       <c r="C250" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D250" s="12"/>
       <c r="E250" s="10" t="s">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="F250" s="11"/>
       <c r="G250" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H250" s="12"/>
       <c r="I250" s="9"/>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="B251" s="11"/>
       <c r="C251" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D251" s="12"/>
       <c r="E251" s="12"/>
@@ -4416,7 +4416,7 @@
         <v>6</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I252" s="5">
         <v>32</v>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="B258" s="11"/>
       <c r="C258" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D258" s="12"/>
       <c r="E258" s="10" t="s">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="F258" s="11"/>
       <c r="G258" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H258" s="12"/>
       <c r="I258" s="9"/>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="B259" s="11"/>
       <c r="C259" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
@@ -4502,8 +4502,8 @@
       <c r="A260" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B260" s="8">
-        <v>1</v>
+      <c r="B260" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C260" s="9"/>
       <c r="D260" s="2" t="s">
@@ -4519,7 +4519,7 @@
         <v>6</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I260" s="5">
         <v>33</v>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="B261" s="11"/>
       <c r="C261" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D261" s="12"/>
       <c r="E261" s="12"/>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B266" s="11"/>
       <c r="C266" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D266" s="12"/>
       <c r="E266" s="10" t="s">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F266" s="11"/>
       <c r="G266" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H266" s="12"/>
       <c r="I266" s="9"/>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="B267" s="11"/>
       <c r="C267" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D267" s="12"/>
       <c r="E267" s="12"/>
@@ -4605,8 +4605,8 @@
       <c r="A268" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B268" s="8">
-        <v>1</v>
+      <c r="B268" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C268" s="9"/>
       <c r="D268" s="2" t="s">
@@ -4622,7 +4622,7 @@
         <v>6</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I268" s="5">
         <v>34</v>
@@ -4634,7 +4634,7 @@
       </c>
       <c r="B269" s="11"/>
       <c r="C269" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D269" s="12"/>
       <c r="E269" s="12"/>
